--- a/RSA_Key_Length_Vs_Time.xlsx
+++ b/RSA_Key_Length_Vs_Time.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
